--- a/comparison-scripts/pan2_supp_tables.xlsx
+++ b/comparison-scripts/pan2_supp_tables.xlsx
@@ -8,300 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppf6\Desktop\GitHub\FluCode\comparison-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7DCC07-D18B-46C1-B0EE-4A8054828BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD994ED5-38FF-447B-971D-5910BA77BEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supp table" sheetId="2" r:id="rId1"/>
-    <sheet name="perc ill" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>HP13</t>
-  </si>
-  <si>
-    <t>HP14</t>
-  </si>
-  <si>
-    <t>HP15</t>
-  </si>
-  <si>
-    <t>HP16</t>
-  </si>
-  <si>
-    <t>HP17</t>
-  </si>
-  <si>
-    <t>HP18</t>
-  </si>
-  <si>
-    <t>HP19</t>
-  </si>
-  <si>
-    <t>HP20</t>
-  </si>
-  <si>
-    <t>HP21</t>
-  </si>
-  <si>
-    <t>HP22</t>
-  </si>
-  <si>
-    <t>HP23</t>
-  </si>
-  <si>
-    <t>HP24</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>COL</t>
   </si>
   <si>
-    <t>31.8% (28.8%, 34.7%)</t>
-  </si>
-  <si>
-    <t>30.7% (26.6%, 34.3%)</t>
-  </si>
-  <si>
-    <t>31% (28.2%, 34%)</t>
-  </si>
-  <si>
-    <t>30.8% (28%, 33.6%)</t>
-  </si>
-  <si>
-    <t>31% (28.1%, 33.9%)</t>
-  </si>
-  <si>
-    <t>30.8% (27.9%, 33.6%)</t>
-  </si>
-  <si>
-    <t>30.9% (27.9%, 33.8%)</t>
-  </si>
-  <si>
-    <t>28.5% (24.5%, 32.4%)</t>
-  </si>
-  <si>
-    <t>28% (24%, 32%)</t>
-  </si>
-  <si>
-    <t>30% (27.1%, 33%)</t>
-  </si>
-  <si>
-    <t>29.8% (27%, 32.7%)</t>
-  </si>
-  <si>
-    <t>NEU</t>
-  </si>
-  <si>
-    <t>35.3% (35.3%, 35.4%)</t>
-  </si>
-  <si>
-    <t>30.4% (30.4%, 30.4%)</t>
-  </si>
-  <si>
-    <t>30% (30%, 30.1%)</t>
-  </si>
-  <si>
-    <t>30.5% (30.5%, 30.6%)</t>
-  </si>
-  <si>
-    <t>30.4% (30.4%, 30.5%)</t>
-  </si>
-  <si>
-    <t>33.1% (33.1%, 33.1%)</t>
-  </si>
-  <si>
-    <t>27.5% (27.4%, 27.5%)</t>
-  </si>
-  <si>
-    <t>26% (25.9%, 26.5%)</t>
-  </si>
-  <si>
-    <t>28% (28%, 28.1%)</t>
-  </si>
-  <si>
-    <t>27.9% (27.8%, 28%)</t>
-  </si>
-  <si>
     <t>UTA</t>
   </si>
   <si>
-    <t>44.9% (37.4%, 49.2%)</t>
-  </si>
-  <si>
-    <t>40.7% (28.1%, 47.9%)</t>
-  </si>
-  <si>
-    <t>45.2% (38.4%, 49.1%)</t>
-  </si>
-  <si>
-    <t>41.9% (34.7%, 46.5%)</t>
-  </si>
-  <si>
-    <t>42.4% (36.8%, 47.2%)</t>
-  </si>
-  <si>
-    <t>39.6% (29.1%, 46.1%)</t>
-  </si>
-  <si>
-    <t>39.6% (29.2%, 46.4%)</t>
-  </si>
-  <si>
-    <t>43% (32.1%, 48.4%)</t>
-  </si>
-  <si>
-    <t>28.4% (12.5%, 40.2%)</t>
-  </si>
-  <si>
-    <t>23.7% (3.3%, 39.3%)</t>
-  </si>
-  <si>
-    <t>37.2% (23.7%, 44.9%)</t>
-  </si>
-  <si>
-    <t>36% (21.2%, 45.1%)</t>
-  </si>
-  <si>
     <t>UVA</t>
   </si>
   <si>
-    <t>29.5% (26.2%, 32.2%)</t>
-  </si>
-  <si>
-    <t>29.4% (25.4%, 32.2%)</t>
-  </si>
-  <si>
-    <t>26.3% (23.7%, 29.1%)</t>
-  </si>
-  <si>
-    <t>27.1% (25.6%, 29.1%)</t>
-  </si>
-  <si>
-    <t>25.2% (21.2%, 28.9%)</t>
-  </si>
-  <si>
-    <t>25.3% (22.7%, 28.8%)</t>
-  </si>
-  <si>
-    <t>23.5% (16.7%, 28.5%)</t>
-  </si>
-  <si>
-    <t>21.6% (13%, 28.2%)</t>
-  </si>
-  <si>
-    <t>24.9% (19.6%, 28.9%)</t>
-  </si>
-  <si>
-    <t>24.4% (17.6%, 28.8%)</t>
-  </si>
-  <si>
     <t>IMP</t>
   </si>
   <si>
-    <t>29.7% (28.3%, 31%)</t>
-  </si>
-  <si>
-    <t>29.6% (28.1%, 31%)</t>
-  </si>
-  <si>
-    <t>23.5% (22%, 25%)</t>
-  </si>
-  <si>
-    <t>23.4% (22.2%, 25%)</t>
-  </si>
-  <si>
-    <t>25.5% (24.7%, 26.8%)</t>
-  </si>
-  <si>
-    <t>29.1% (27.7%, 30.3%)</t>
-  </si>
-  <si>
-    <t>20.8% (18%, 23.4%)</t>
-  </si>
-  <si>
-    <t>20.8% (17.9%, 23.6%)</t>
-  </si>
-  <si>
-    <t>22.4% (20.9%, 23.9%)</t>
-  </si>
-  <si>
-    <t>22.3% (21.1%, 23.8%)</t>
-  </si>
-  <si>
     <t>COL2</t>
   </si>
   <si>
-    <t>33.3% (32.6%, 34.1%)</t>
-  </si>
-  <si>
-    <t>30.4% (29.5%, 31.4%)</t>
-  </si>
-  <si>
-    <t>30.5% (29.5%, 31.5%)</t>
-  </si>
-  <si>
-    <t>30.4% (29.5%, 31.3%)</t>
-  </si>
-  <si>
-    <t>32.8% (32%, 33.7%)</t>
-  </si>
-  <si>
-    <t>29.6% (28.7%, 30.6%)</t>
-  </si>
-  <si>
-    <t>29.6% (28.6%, 30.6%)</t>
-  </si>
-  <si>
-    <t>29.7% (28.7%, 30.7%)</t>
-  </si>
-  <si>
     <t>ENS</t>
   </si>
   <si>
-    <t>34.1% (31.4%, 36.1%)</t>
-  </si>
-  <si>
-    <t>33.2% (29.3%, 35.8%)</t>
-  </si>
-  <si>
-    <t>34.1% (31.6%, 36.1%)</t>
-  </si>
-  <si>
-    <t>30.6% (28.1%, 32.7%)</t>
-  </si>
-  <si>
-    <t>30.7% (28.7%, 32.7%)</t>
-  </si>
-  <si>
-    <t>30.4% (27.2%, 33%)</t>
-  </si>
-  <si>
-    <t>30% (27%, 32.6%)</t>
-  </si>
-  <si>
-    <t>33.1% (29.9%, 35.3%)</t>
-  </si>
-  <si>
-    <t>26.4% (21.3%, 30.4%)</t>
-  </si>
-  <si>
-    <t>24.9% (18.8%, 30%)</t>
-  </si>
-  <si>
-    <t>28.7% (24.7%, 31.6%)</t>
-  </si>
-  <si>
-    <t>28.4% (23.9%, 31.5%)</t>
-  </si>
-  <si>
     <t>Total Percent Symptomatically Ill</t>
   </si>
   <si>
@@ -357,6 +95,27 @@
   </si>
   <si>
     <t>70 (70, 71)</t>
+  </si>
+  <si>
+    <t>34% (31%, 36%)</t>
+  </si>
+  <si>
+    <t>30% (26%, 32%)</t>
+  </si>
+  <si>
+    <t>45% (37%, 49%)</t>
+  </si>
+  <si>
+    <t>35% (35%, 35%)</t>
+  </si>
+  <si>
+    <t>30% (28%, 31%)</t>
+  </si>
+  <si>
+    <t>33% (33%, 34%)</t>
+  </si>
+  <si>
+    <t>32% (29%, 35%)</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1192,7 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1446,7 +1205,7 @@
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -1461,111 +1220,111 @@
     <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1575,369 +1334,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>